--- a/DOCS/Project_NeoRogue_BOM.xlsx
+++ b/DOCS/Project_NeoRogue_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/Project-NeoRogue/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C0129135-8FE6-415D-B3B1-33ED452BFE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9560EBF-B142-4B31-89B9-E947B364C95C}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{C0129135-8FE6-415D-B3B1-33ED452BFE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1BB4F2C-C23A-4659-B790-0EDC8FDD2424}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="5780" windowWidth="37020" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2370" windowWidth="25570" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project_NeoRogue" sheetId="1" r:id="rId1"/>
@@ -412,9 +412,6 @@
     <t>C2913200</t>
   </si>
   <si>
-    <t>https://www.lcsc.com/product-detail/WiFi-Modules_Espressif-Systems-ESP32-S3-WROOM-1-N4R8_C2913200.html</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -692,13 +689,16 @@
   </si>
   <si>
     <t>https://www.aliexpress.us/item/3256805864860787.html?spm=a2g0o.productlist.main.1.64451fb0BsqEmk&amp;algo_pvid=27d28d4a-27d4-4d73-a6ec-08c1c9cfd2de&amp;algo_exp_id=27d28d4a-27d4-4d73-a6ec-08c1c9cfd2de-0&amp;pdp_npi=4%40dis%21USD%213.84%212.53%21%21%2127.36%21%21%40210318c917022570143511274e87db%2112000035511792474%21sea%21US%21904576870%21&amp;curPageLogUid=xqQ5ECtYNWfW</t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/WiFi-Modules_Espressif-Systems-ESP32-S3-WROOM-1-N8_C2913198.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,8 +833,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,6 +1020,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1131,7 +1145,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1174,11 +1188,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1212,6 +1229,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1236,9 +1254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1276,7 +1294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1382,7 +1400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1524,7 +1542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1534,16 +1552,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="53.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.90625" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="65.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7265625" customWidth="1"/>
+    <col min="8" max="8" width="23.54296875" customWidth="1"/>
     <col min="12" max="12" width="135.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2221,8 +2240,8 @@
       <c r="K21" t="s">
         <v>129</v>
       </c>
-      <c r="L21" t="s">
-        <v>130</v>
+      <c r="L21" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -2233,28 +2252,28 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
         <v>131</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>132</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>133</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
         <v>134</v>
       </c>
-      <c r="H22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>135</v>
-      </c>
-      <c r="L22" t="s">
-        <v>136</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2265,31 +2284,31 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
         <v>137</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>138</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>139</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>140</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>141</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
         <v>142</v>
       </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>143</v>
-      </c>
       <c r="L23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2300,28 +2319,28 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" t="s">
         <v>144</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>145</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>146</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>147</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
         <v>148</v>
       </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="L24" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="L24" t="s">
-        <v>150</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2332,62 +2351,62 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" t="s">
         <v>151</v>
-      </c>
-      <c r="E25" t="s">
-        <v>152</v>
       </c>
       <c r="F25" t="s">
         <v>46</v>
       </c>
       <c r="G25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" t="s">
         <v>153</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
         <v>154</v>
       </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>155</v>
-      </c>
-      <c r="L25" t="s">
-        <v>156</v>
       </c>
       <c r="M25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="L26" t="s">
-        <v>163</v>
-      </c>
-      <c r="M26">
+      <c r="M26" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2396,28 +2415,28 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
         <v>164</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>165</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" t="s">
         <v>166</v>
       </c>
-      <c r="G27" t="s">
-        <v>160</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
         <v>167</v>
       </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>168</v>
-      </c>
-      <c r="L27" t="s">
-        <v>169</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2428,28 +2447,28 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" t="s">
         <v>170</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>171</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>172</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>173</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
         <v>174</v>
       </c>
-      <c r="J28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>175</v>
-      </c>
-      <c r="L28" t="s">
-        <v>176</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2460,28 +2479,28 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" t="s">
         <v>177</v>
       </c>
-      <c r="E29" t="s">
-        <v>178</v>
-      </c>
       <c r="F29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" t="s">
         <v>172</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>173</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
         <v>174</v>
       </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>175</v>
-      </c>
-      <c r="L29" t="s">
-        <v>176</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2492,13 +2511,13 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" t="s">
         <v>179</v>
       </c>
-      <c r="E30" t="s">
-        <v>180</v>
-      </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M30">
         <v>3</v>
@@ -2509,13 +2528,13 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" t="s">
         <v>181</v>
       </c>
-      <c r="E31" t="s">
-        <v>182</v>
-      </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M31">
         <v>3</v>
@@ -2526,28 +2545,28 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" t="s">
         <v>183</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>184</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>185</v>
-      </c>
-      <c r="G32" t="s">
-        <v>186</v>
       </c>
       <c r="H32">
         <v>53</v>
       </c>
       <c r="J32" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" t="s">
         <v>187</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>188</v>
-      </c>
-      <c r="L32" t="s">
-        <v>189</v>
       </c>
       <c r="M32">
         <v>4</v>
@@ -2558,13 +2577,13 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" t="s">
         <v>190</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>191</v>
-      </c>
-      <c r="F33" t="s">
-        <v>192</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2575,13 +2594,13 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" t="s">
         <v>190</v>
       </c>
-      <c r="E34" t="s">
-        <v>191</v>
-      </c>
       <c r="F34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2592,13 +2611,13 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
         <v>190</v>
       </c>
-      <c r="E35" t="s">
-        <v>191</v>
-      </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2609,13 +2628,13 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" t="s">
         <v>190</v>
       </c>
-      <c r="E36" t="s">
-        <v>191</v>
-      </c>
       <c r="F36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2626,13 +2645,13 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" t="s">
         <v>190</v>
       </c>
-      <c r="E37" t="s">
-        <v>191</v>
-      </c>
       <c r="F37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2643,13 +2662,13 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" t="s">
         <v>190</v>
       </c>
-      <c r="E38" t="s">
-        <v>191</v>
-      </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2660,13 +2679,13 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" t="s">
         <v>190</v>
       </c>
-      <c r="E39" t="s">
-        <v>191</v>
-      </c>
       <c r="F39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2677,13 +2696,13 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" t="s">
         <v>190</v>
       </c>
-      <c r="E40" t="s">
-        <v>191</v>
-      </c>
       <c r="F40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2694,28 +2713,28 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" t="s">
         <v>200</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>201</v>
-      </c>
-      <c r="F41" t="s">
-        <v>202</v>
       </c>
       <c r="G41" t="s">
         <v>47</v>
       </c>
       <c r="H41" t="s">
+        <v>202</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
         <v>203</v>
       </c>
-      <c r="J41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>204</v>
-      </c>
-      <c r="L41" t="s">
-        <v>205</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2726,28 +2745,28 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" t="s">
         <v>206</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>207</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>208</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" t="s">
         <v>210</v>
       </c>
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" t="s">
-        <v>211</v>
-      </c>
       <c r="L42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2758,16 +2777,16 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" t="s">
         <v>212</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>213</v>
       </c>
-      <c r="F43" t="s">
-        <v>214</v>
-      </c>
       <c r="L43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2778,34 +2797,38 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" t="s">
         <v>215</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>216</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>217</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>218</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" t="s">
         <v>219</v>
       </c>
-      <c r="J44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>220</v>
       </c>
-      <c r="L44" t="s">
-        <v>221</v>
-      </c>
       <c r="M44">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L21" r:id="rId1" xr:uid="{03B1E16A-B4B2-450A-A6C4-64F0184B3C50}"/>
+    <hyperlink ref="L24" r:id="rId2" xr:uid="{7DA153E7-3A88-4030-B370-B272C34B424C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DOCS/Project_NeoRogue_BOM.xlsx
+++ b/DOCS/Project_NeoRogue_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/Project-NeoRogue/DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{C0129135-8FE6-415D-B3B1-33ED452BFE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1BB4F2C-C23A-4659-B790-0EDC8FDD2424}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{C0129135-8FE6-415D-B3B1-33ED452BFE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249AADB1-D9AF-4900-8F7A-D8B4A9E1F7AA}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2370" windowWidth="25570" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2590" yWindow="1190" windowWidth="31520" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project_NeoRogue" sheetId="1" r:id="rId1"/>
@@ -1254,9 +1254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1294,7 +1294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1400,7 +1400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1542,7 +1542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1552,18 +1552,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="53.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" customWidth="1"/>
-    <col min="6" max="6" width="65.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" customWidth="1"/>
     <col min="7" max="7" width="26.7265625" customWidth="1"/>
     <col min="8" max="8" width="23.54296875" customWidth="1"/>
-    <col min="12" max="12" width="135.08984375" customWidth="1"/>
+    <col min="12" max="12" width="135.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -1824,7 +1824,7 @@
       <c r="K8" t="s">
         <v>54</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="M8">
@@ -2828,6 +2828,7 @@
   <hyperlinks>
     <hyperlink ref="L21" r:id="rId1" xr:uid="{03B1E16A-B4B2-450A-A6C4-64F0184B3C50}"/>
     <hyperlink ref="L24" r:id="rId2" xr:uid="{7DA153E7-3A88-4030-B370-B272C34B424C}"/>
+    <hyperlink ref="L8" r:id="rId3" xr:uid="{5BB8CC8E-A3EC-43A4-9D95-D151DB3950CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
